--- a/Course work/CourseWork/Эксперимент 0/Эксперимент0.xlsx
+++ b/Course work/CourseWork/Эксперимент 0/Эксперимент0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Универ\surgu-System-Modeling\Course work\CourseWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D081FE3-FF46-40FA-8227-C8DDBAC127CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59166FE-3814-4D7B-8865-BE5CA9BBA7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Измерения времени</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Вероятность только ЭВМ</t>
+  </si>
+  <si>
+    <t>Вместимость очереди</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T275"/>
+  <dimension ref="A1:T502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U78" sqref="U78"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +611,8 @@
       <c r="F4">
         <v>0.28333333333333333</v>
       </c>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -957,6 +962,13 @@
       <c r="F18">
         <v>0.56666666666666643</v>
       </c>
+      <c r="L18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2719,6 +2731,12 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>42.648725212713572</v>
+      </c>
+      <c r="B107">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C107">
         <v>14.882058546046881</v>
       </c>
@@ -2733,6 +2751,12 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>42.932058546046903</v>
+      </c>
+      <c r="B108">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C108">
         <v>14.882058546046881</v>
       </c>
@@ -2747,6 +2771,12 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>44.632058546046892</v>
+      </c>
+      <c r="B109">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C109">
         <v>15.448725212713548</v>
       </c>
@@ -2761,6 +2791,12 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>45.482058546046886</v>
+      </c>
+      <c r="B110">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C110">
         <v>15.448725212713548</v>
       </c>
@@ -2775,6 +2811,12 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>46.048725212713549</v>
+      </c>
+      <c r="B111">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C111">
         <v>15.732058546046881</v>
       </c>
@@ -2789,6 +2831,12 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>46.898725212713543</v>
+      </c>
+      <c r="B112">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C112">
         <v>15.732058546046881</v>
       </c>
@@ -2802,7 +2850,13 @@
         <v>0.43263020516267048</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>47.182058546046875</v>
+      </c>
+      <c r="B113">
+        <v>0.50833544085916316</v>
+      </c>
       <c r="C113">
         <v>15.732058546046881</v>
       </c>
@@ -2816,7 +2870,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>47.465391879380206</v>
+      </c>
+      <c r="B114">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C114">
         <v>15.866095007550879</v>
       </c>
@@ -2830,7 +2890,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>47.748725212713538</v>
+      </c>
+      <c r="B115">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C115">
         <v>16.015391879380214</v>
       </c>
@@ -2844,7 +2910,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>47.878925689123385</v>
+      </c>
+      <c r="B116">
+        <v>0.41353380974317844</v>
+      </c>
       <c r="C116">
         <v>16.015391879380214</v>
       </c>
@@ -2858,7 +2930,13 @@
         <v>0.42903383782488191</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>48.032058546046869</v>
+      </c>
+      <c r="B117">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C117">
         <v>16.298725212713549</v>
       </c>
@@ -2872,7 +2950,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>48.315391879380201</v>
+      </c>
+      <c r="B118">
+        <v>0.43646619025681588</v>
+      </c>
       <c r="C118">
         <v>16.436358041555337</v>
       </c>
@@ -2886,7 +2970,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>48.598725212713532</v>
+      </c>
+      <c r="B119">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C119">
         <v>16.582058546046884</v>
       </c>
@@ -2900,7 +2990,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>48.882058546046864</v>
+      </c>
+      <c r="B120">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C120">
         <v>16.582058546046884</v>
       </c>
@@ -2914,7 +3010,13 @@
         <v>0.42078473621657153</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>49.732058546046858</v>
+      </c>
+      <c r="B121">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C121">
         <v>16.865391879380219</v>
       </c>
@@ -2928,7 +3030,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>50.015391879380189</v>
+      </c>
+      <c r="B122">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C122">
         <v>17.011273809830318</v>
       </c>
@@ -2942,7 +3050,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>50.298725212713521</v>
+      </c>
+      <c r="B123">
+        <v>0.5275192198638905</v>
+      </c>
       <c r="C123">
         <v>17.148725212713554</v>
       </c>
@@ -2956,7 +3070,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>50.582058546046852</v>
+      </c>
+      <c r="B124">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C124">
         <v>17.432058546046889</v>
       </c>
@@ -2970,7 +3090,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>50.865391879380184</v>
+      </c>
+      <c r="B125">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C125">
         <v>17.432058546046889</v>
       </c>
@@ -2984,7 +3110,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>51.432058546046846</v>
+      </c>
+      <c r="B126">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C126">
         <v>17.715391879380224</v>
       </c>
@@ -2998,7 +3130,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>51.715391879380178</v>
+      </c>
+      <c r="B127">
+        <v>0.50142281473863193</v>
+      </c>
       <c r="C127">
         <v>17.715391879380224</v>
       </c>
@@ -3012,7 +3150,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>51.998725212713509</v>
+      </c>
+      <c r="B128">
+        <v>0.46641856250827374</v>
+      </c>
       <c r="C128">
         <v>17.998725212713559</v>
       </c>
@@ -3026,7 +3170,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>52.282058546046841</v>
+      </c>
+      <c r="B129">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C129">
         <v>18.282058546046894</v>
       </c>
@@ -3040,7 +3190,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>52.565391879380172</v>
+      </c>
+      <c r="B130">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C130">
         <v>18.282058546046894</v>
       </c>
@@ -3054,7 +3210,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>53.132058546046835</v>
+      </c>
+      <c r="B131">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C131">
         <v>18.282058546046894</v>
       </c>
@@ -3068,7 +3230,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>53.275974889410911</v>
+      </c>
+      <c r="B132">
+        <v>0.42724967669740721</v>
+      </c>
       <c r="C132">
         <v>18.282058546046894</v>
       </c>
@@ -3082,7 +3250,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>53.415391879380167</v>
+      </c>
+      <c r="B133">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C133">
         <v>18.565391879380229</v>
       </c>
@@ -3096,7 +3270,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>53.698725212713498</v>
+      </c>
+      <c r="B134">
+        <v>0.42275032330258711</v>
+      </c>
       <c r="C134">
         <v>18.565391879380229</v>
       </c>
@@ -3110,7 +3290,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>53.982058546046829</v>
+      </c>
+      <c r="B135">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C135">
         <v>18.848725212713564</v>
       </c>
@@ -3124,7 +3310,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>54.265391879380161</v>
+      </c>
+      <c r="B136">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C136">
         <v>18.848725212713564</v>
       </c>
@@ -3138,7 +3330,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>54.548725212713492</v>
+      </c>
+      <c r="B137">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C137">
         <v>19.132058546046899</v>
       </c>
@@ -3152,7 +3350,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>54.832058546046824</v>
+      </c>
+      <c r="B138">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C138">
         <v>19.132058546046899</v>
       </c>
@@ -3166,7 +3370,13 @@
         <v>0.43888407481851033</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>55.115391879380155</v>
+      </c>
+      <c r="B139">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C139">
         <v>19.415391879380234</v>
       </c>
@@ -3180,7 +3390,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>55.965391879380149</v>
+      </c>
+      <c r="B140">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C140">
         <v>19.543174471228394</v>
       </c>
@@ -3194,7 +3410,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>56.248725212713481</v>
+      </c>
+      <c r="B141">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C141">
         <v>19.698725212713569</v>
       </c>
@@ -3208,7 +3430,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>56.532058546046812</v>
+      </c>
+      <c r="B142">
+        <v>0.44695247367027946</v>
+      </c>
       <c r="C142">
         <v>19.982058546046904</v>
       </c>
@@ -3222,7 +3450,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>57.098725212713475</v>
+      </c>
+      <c r="B143">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C143">
         <v>20.265391879380239</v>
       </c>
@@ -3236,7 +3470,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>57.665391879380138</v>
+      </c>
+      <c r="B144">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C144">
         <v>20.265391879380239</v>
       </c>
@@ -3250,7 +3490,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>57.94872521271347</v>
+      </c>
+      <c r="B145">
+        <v>0.56267582242498548</v>
+      </c>
       <c r="C145">
         <v>20.265391879380239</v>
       </c>
@@ -3264,7 +3510,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>58.232058546046801</v>
+      </c>
+      <c r="B146">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C146">
         <v>20.265391879380239</v>
       </c>
@@ -3278,7 +3530,13 @@
         <v>0.44807533559044543</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>59.365391879380127</v>
+      </c>
+      <c r="B147">
+        <v>0.28333333333333144</v>
+      </c>
       <c r="C147">
         <v>20.548725212713574</v>
       </c>
@@ -3292,7 +3550,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>59.648725212713458</v>
+      </c>
+      <c r="B148">
+        <v>0.44054033336660581</v>
+      </c>
       <c r="C148">
         <v>20.667316543789799</v>
       </c>
@@ -3306,7 +3570,13 @@
         <v>0.44453126940649312</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>59.93205854604679</v>
+      </c>
+      <c r="B149">
+        <v>0.56666666666666288</v>
+      </c>
       <c r="C149">
         <v>20.832058546046909</v>
       </c>
@@ -3320,7 +3590,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>48.273293986240482</v>
+      </c>
+      <c r="B150">
+        <v>0.12775478482623726</v>
+      </c>
       <c r="C150">
         <v>20.954193943307086</v>
       </c>
@@ -3334,7 +3610,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>48.571472742098841</v>
+      </c>
+      <c r="B151">
+        <v>0.12419586680003647</v>
+      </c>
       <c r="C151">
         <v>21.115391879380244</v>
       </c>
@@ -3348,7 +3630,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>48.711913168323868</v>
+      </c>
+      <c r="B152">
+        <v>0.2592740391121211</v>
+      </c>
       <c r="C152">
         <v>21.115391879380244</v>
       </c>
@@ -3362,7 +3650,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>49.020196405006644</v>
+      </c>
+      <c r="B153">
+        <v>0.13536063836426138</v>
+      </c>
       <c r="C153">
         <v>21.398725212713579</v>
       </c>
@@ -3376,7 +3670,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>49.155136043406721</v>
+      </c>
+      <c r="B154">
+        <v>0.14672966992105074</v>
+      </c>
       <c r="C154">
         <v>21.398725212713579</v>
       </c>
@@ -3390,7 +3690,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>49.300369000736801</v>
+      </c>
+      <c r="B155">
+        <v>0.13118237958397572</v>
+      </c>
       <c r="C155">
         <v>21.682058546046914</v>
       </c>
@@ -3404,7 +3710,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>50.412082549928087</v>
+      </c>
+      <c r="B156">
+        <v>0.12361317318804055</v>
+      </c>
       <c r="C156">
         <v>21.965391879380249</v>
       </c>
@@ -3418,7 +3730,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>50.561409610208074</v>
+      </c>
+      <c r="B157">
+        <v>0.13608063931542347</v>
+      </c>
       <c r="C157">
         <v>22.248725212713584</v>
       </c>
@@ -3432,7 +3750,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>50.706652856065716</v>
+      </c>
+      <c r="B158">
+        <v>0.19832939260036397</v>
+      </c>
       <c r="C158">
         <v>22.248725212713584</v>
       </c>
@@ -3446,7 +3770,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>50.845066688795036</v>
+      </c>
+      <c r="B159">
+        <v>0.18652321389438953</v>
+      </c>
       <c r="C159">
         <v>22.532058546046919</v>
       </c>
@@ -3460,7 +3790,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>51.061702351149812</v>
+      </c>
+      <c r="B160">
+        <v>0.11909528659622737</v>
+      </c>
       <c r="C160">
         <v>22.532058546046919</v>
       </c>
@@ -3474,7 +3810,13 @@
         <v>0.55409918455330143</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>51.265525969359516</v>
+      </c>
+      <c r="B161">
+        <v>0.12705659261947488</v>
+      </c>
       <c r="C161">
         <v>22.532058546046919</v>
       </c>
@@ -3488,7 +3830,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>51.383322258800106</v>
+      </c>
+      <c r="B162">
+        <v>0.22394193457130029</v>
+      </c>
       <c r="C162">
         <v>22.544626028160287</v>
       </c>
@@ -3502,7 +3850,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>51.518295984355738</v>
+      </c>
+      <c r="B163">
+        <v>0.2514726324433596</v>
+      </c>
       <c r="C163">
         <v>22.815391879380254</v>
       </c>
@@ -3516,7 +3870,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>51.662029234571079</v>
+      </c>
+      <c r="B164">
+        <v>0.13765604762243555</v>
+      </c>
       <c r="C164">
         <v>23.098725212713589</v>
       </c>
@@ -3530,7 +3890,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>51.942086339575063</v>
+      </c>
+      <c r="B165">
+        <v>0.14919883728409644</v>
+      </c>
       <c r="C165">
         <v>23.382058546046924</v>
       </c>
@@ -3544,7 +3910,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>52.064701371620906</v>
+      </c>
+      <c r="B166">
+        <v>0.17115679032082198</v>
+      </c>
       <c r="C166">
         <v>23.382058546046924</v>
       </c>
@@ -3558,7 +3930,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>52.345273150374908</v>
+      </c>
+      <c r="B167">
+        <v>0.12370541022674786</v>
+      </c>
       <c r="C167">
         <v>23.665391879380259</v>
       </c>
@@ -3572,7 +3950,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>52.479508519851159</v>
+      </c>
+      <c r="B168">
+        <v>0.13920515892545637</v>
+      </c>
       <c r="C168">
         <v>23.665391879380259</v>
       </c>
@@ -3586,7 +3970,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>52.609094259884102</v>
+      </c>
+      <c r="B169">
+        <v>0.26169394542104385</v>
+      </c>
       <c r="C169">
         <v>23.948725212713594</v>
       </c>
@@ -3600,7 +3990,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>52.81919048756999</v>
+      </c>
+      <c r="B170">
+        <v>0.1472983109495658</v>
+      </c>
       <c r="C170">
         <v>23.948725212713594</v>
       </c>
@@ -3614,7 +4010,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>53.041407650999517</v>
+      </c>
+      <c r="B171">
+        <v>0.12315955603394713</v>
+      </c>
       <c r="C171">
         <v>24.232058546046929</v>
       </c>
@@ -3628,7 +4030,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>53.195685919032421</v>
+      </c>
+      <c r="B172">
+        <v>0.13329667055589312</v>
+      </c>
       <c r="C172">
         <v>24.232058546046929</v>
       </c>
@@ -3642,7 +4050,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>53.333898720581949</v>
+      </c>
+      <c r="B173">
+        <v>0.12536930048465678</v>
+      </c>
       <c r="C173">
         <v>24.232058546046929</v>
       </c>
@@ -3656,7 +4070,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>54.219960473764004</v>
+      </c>
+      <c r="B174">
+        <v>0.14919364413076863</v>
+      </c>
       <c r="C174">
         <v>24.798725212713599</v>
       </c>
@@ -3670,7 +4090,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>54.465187073362927</v>
+      </c>
+      <c r="B175">
+        <v>0.12172797370093491</v>
+      </c>
       <c r="C175">
         <v>24.798725212713599</v>
       </c>
@@ -3684,7 +4110,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>54.913210033044649</v>
+      </c>
+      <c r="B176">
+        <v>0.14586952637193207</v>
+      </c>
       <c r="C176">
         <v>25.082058546046934</v>
       </c>
@@ -3698,7 +4130,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>55.320210518002966</v>
+      </c>
+      <c r="B177">
+        <v>0.13988712961524641</v>
+      </c>
       <c r="C177">
         <v>25.082058546046934</v>
       </c>
@@ -3712,7 +4150,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>55.993161789417179</v>
+      </c>
+      <c r="B178">
+        <v>0.14508989221147317</v>
+      </c>
       <c r="C178">
         <v>25.082058546046934</v>
       </c>
@@ -3726,7 +4170,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>56.116192636007973</v>
+      </c>
+      <c r="B179">
+        <v>0.15058370144374322</v>
+      </c>
       <c r="C179">
         <v>25.648725212713604</v>
       </c>
@@ -3740,7 +4190,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>56.237408359592976</v>
+      </c>
+      <c r="B180">
+        <v>0.13005901497524519</v>
+      </c>
       <c r="C180">
         <v>25.648725212713604</v>
       </c>
@@ -3754,7 +4210,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>56.791751203336617</v>
+      </c>
+      <c r="B181">
+        <v>0.1427161337115308</v>
+      </c>
       <c r="C181">
         <v>25.932058546046939</v>
       </c>
@@ -3768,7 +4230,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>57.199918913186757</v>
+      </c>
+      <c r="B182">
+        <v>0.11862082063886703</v>
+      </c>
       <c r="C182">
         <v>25.932058546046939</v>
       </c>
@@ -3782,7 +4250,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>57.459168132399334</v>
+      </c>
+      <c r="B183">
+        <v>0.12619460467816879</v>
+      </c>
       <c r="C183">
         <v>26.215391879380274</v>
       </c>
@@ -3796,7 +4270,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>57.588540645043565</v>
+      </c>
+      <c r="B184">
+        <v>0.1244798023821474</v>
+      </c>
       <c r="C184">
         <v>26.215391879380274</v>
       </c>
@@ -3810,7 +4290,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>57.738080185659236</v>
+      </c>
+      <c r="B185">
+        <v>0.17397791682579822</v>
+      </c>
       <c r="C185">
         <v>26.498725212713609</v>
       </c>
@@ -3824,7 +4310,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>57.887457426087636</v>
+      </c>
+      <c r="B186">
+        <v>0.16845221233864294</v>
+      </c>
       <c r="C186">
         <v>26.498725212713609</v>
       </c>
@@ -3838,7 +4330,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>58.006946645710244</v>
+      </c>
+      <c r="B187">
+        <v>0.12904864103967384</v>
+      </c>
       <c r="C187">
         <v>26.782058546046944</v>
       </c>
@@ -3852,7 +4350,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>58.300484058021723</v>
+      </c>
+      <c r="B188">
+        <v>0.14115984285244565</v>
+      </c>
       <c r="C188">
         <v>26.782058546046944</v>
       </c>
@@ -3866,7 +4370,13 @@
         <v>0.85000000000000497</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>58.9992559513801</v>
+      </c>
+      <c r="B189">
+        <v>0.12872365939004027</v>
+      </c>
       <c r="C189">
         <v>26.782058546046944</v>
       </c>
@@ -3880,7 +4390,13 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>59.959069750561227</v>
+      </c>
+      <c r="B190">
+        <v>0.11882182456583479</v>
+      </c>
       <c r="C190">
         <v>26.782058546046944</v>
       </c>
@@ -3894,7 +4410,7 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>27.348725212713614</v>
       </c>
@@ -3908,7 +4424,7 @@
         <v>0.56666666666666998</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>27.348725212713614</v>
       </c>
@@ -5035,33 +5551,3236 @@
       <c r="D272">
         <v>0.3123628650969863</v>
       </c>
-    </row>
-    <row r="273" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>38.682058546046932</v>
+      </c>
+      <c r="F272">
+        <v>0.46316361893074287</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273">
         <v>39.532058546046926</v>
       </c>
       <c r="D273">
         <v>0.28333333333333144</v>
       </c>
-    </row>
-    <row r="274" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>38.965391879380263</v>
+      </c>
+      <c r="F273">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274">
         <v>39.815391879380257</v>
       </c>
       <c r="D274">
         <v>0.46100414685295732</v>
       </c>
-    </row>
-    <row r="275" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>38.965391879380263</v>
+      </c>
+      <c r="F274">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275">
         <v>39.815391879380257</v>
       </c>
       <c r="D275">
         <v>0.32644482682706411</v>
       </c>
+      <c r="E275">
+        <v>39.248725212713595</v>
+      </c>
+      <c r="F275">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>38.682058546046932</v>
+      </c>
+      <c r="D276">
+        <v>0.20110058605831682</v>
+      </c>
+      <c r="E276">
+        <v>39.248725212713595</v>
+      </c>
+      <c r="F276">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>38.965391879380263</v>
+      </c>
+      <c r="D277">
+        <v>0.38430239948006317</v>
+      </c>
+      <c r="E277">
+        <v>39.532058546046926</v>
+      </c>
+      <c r="F277">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>38.965391879380263</v>
+      </c>
+      <c r="D278">
+        <v>0.24745738210890522</v>
+      </c>
+      <c r="E278">
+        <v>39.532058546046926</v>
+      </c>
+      <c r="F278">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="279" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>38.965391879380263</v>
+      </c>
+      <c r="D279">
+        <v>9.4907539451973832E-2</v>
+      </c>
+      <c r="E279">
+        <v>39.815391879380257</v>
+      </c>
+      <c r="F279">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>39.248725212713595</v>
+      </c>
+      <c r="D280">
+        <v>0.2213085900454459</v>
+      </c>
+      <c r="E280">
+        <v>39.815391879380257</v>
+      </c>
+      <c r="F280">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="281" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>39.248725212713595</v>
+      </c>
+      <c r="D281">
+        <v>8.6749270019552682E-2</v>
+      </c>
+      <c r="E281">
+        <v>40.098725212713589</v>
+      </c>
+      <c r="F281">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="282" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>39.293337154590745</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>40.098725212713589</v>
+      </c>
+      <c r="F282">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="283" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>39.532058546046926</v>
+      </c>
+      <c r="D283">
+        <v>0.12406295237872911</v>
+      </c>
+      <c r="E283">
+        <v>40.38205854604692</v>
+      </c>
+      <c r="F283">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>39.532058546046926</v>
+      </c>
+      <c r="D284">
+        <v>2.2531625607371097E-2</v>
+      </c>
+      <c r="E284">
+        <v>40.38205854604692</v>
+      </c>
+      <c r="F284">
+        <v>0.43599131507476585</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>39.815391879380257</v>
+      </c>
+      <c r="D285">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E285">
+        <v>40.665391879380252</v>
+      </c>
+      <c r="F285">
+        <v>0.4489291382552949</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>39.946067230972155</v>
+      </c>
+      <c r="D286">
+        <v>0.29971452312831559</v>
+      </c>
+      <c r="E286">
+        <v>40.665391879380252</v>
+      </c>
+      <c r="F286">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>40.098725212713589</v>
+      </c>
+      <c r="D287">
+        <v>0.33754353660464176</v>
+      </c>
+      <c r="E287">
+        <v>40.948725212713583</v>
+      </c>
+      <c r="F287">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="288" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>40.216462741124957</v>
+      </c>
+      <c r="D288">
+        <v>0.32244570655402072</v>
+      </c>
+      <c r="E288">
+        <v>40.948725212713583</v>
+      </c>
+      <c r="F288">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>40.38205854604692</v>
+      </c>
+      <c r="D289">
+        <v>0.33515025858221748</v>
+      </c>
+      <c r="E289">
+        <v>41.232058546046915</v>
+      </c>
+      <c r="F289">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>40.665391879380252</v>
+      </c>
+      <c r="D290">
+        <v>0.46659697989672111</v>
+      </c>
+      <c r="E290">
+        <v>41.232058546046915</v>
+      </c>
+      <c r="F290">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>40.948725212713583</v>
+      </c>
+      <c r="D291">
+        <v>0.63912465661136508</v>
+      </c>
+      <c r="E291">
+        <v>41.515391879380246</v>
+      </c>
+      <c r="F291">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>40.948725212713583</v>
+      </c>
+      <c r="D292">
+        <v>0.49646310572490648</v>
+      </c>
+      <c r="E292">
+        <v>41.515391879380246</v>
+      </c>
+      <c r="F292">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>41.232058546046915</v>
+      </c>
+      <c r="D293">
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="E293">
+        <v>41.798725212713578</v>
+      </c>
+      <c r="F293">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>41.232058546046915</v>
+      </c>
+      <c r="D294">
+        <v>0.2127535449003588</v>
+      </c>
+      <c r="E294">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="F294">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>41.232058546046915</v>
+      </c>
+      <c r="D295">
+        <v>7.5756605226558804E-2</v>
+      </c>
+      <c r="E295">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="F295">
+        <v>0.82552311123089339</v>
+      </c>
+    </row>
+    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>41.256535434816016</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>42.36539187938024</v>
+      </c>
+      <c r="F296">
+        <v>0.84999999999999432</v>
+      </c>
+    </row>
+    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>41.515391879380246</v>
+      </c>
+      <c r="D297">
+        <v>0.1580181015520381</v>
+      </c>
+      <c r="E297">
+        <v>42.36539187938024</v>
+      </c>
+      <c r="F297">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="D298">
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="E298">
+        <v>42.648725212713572</v>
+      </c>
+      <c r="F298">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="D299">
+        <v>0.55851379101157761</v>
+      </c>
+      <c r="E299">
+        <v>42.648725212713572</v>
+      </c>
+      <c r="F299">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="D300">
+        <v>0.4118581042740459</v>
+      </c>
+      <c r="E300">
+        <v>42.932058546046903</v>
+      </c>
+      <c r="F300">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>42.082058546046909</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>42.932058546046903</v>
+      </c>
+      <c r="F301">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>42.36539187938024</v>
+      </c>
+      <c r="D302">
+        <v>0.18177961209310922</v>
+      </c>
+      <c r="E302">
+        <v>43.215391879380235</v>
+      </c>
+      <c r="F302">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>42.36539187938024</v>
+      </c>
+      <c r="D303">
+        <v>1.8001533006447801E-2</v>
+      </c>
+      <c r="E303">
+        <v>43.215391879380235</v>
+      </c>
+      <c r="F303">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>42.648725212713572</v>
+      </c>
+      <c r="D304">
+        <v>0.14036410415229739</v>
+      </c>
+      <c r="E304">
+        <v>43.498725212713566</v>
+      </c>
+      <c r="F304">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="305" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>42.932058546046903</v>
+      </c>
+      <c r="D305">
+        <v>0.31045450256208795</v>
+      </c>
+      <c r="E305">
+        <v>43.498725212713566</v>
+      </c>
+      <c r="F305">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="306" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>43.215391879380235</v>
+      </c>
+      <c r="D306">
+        <v>0.4507815319069266</v>
+      </c>
+      <c r="E306">
+        <v>43.782058546046898</v>
+      </c>
+      <c r="F306">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="307" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>43.215391879380235</v>
+      </c>
+      <c r="D307">
+        <v>0.34517853852806013</v>
+      </c>
+      <c r="E307">
+        <v>43.782058546046898</v>
+      </c>
+      <c r="F307">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="308" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>43.498725212713566</v>
+      </c>
+      <c r="D308">
+        <v>0.470067673476251</v>
+      </c>
+      <c r="E308">
+        <v>44.065391879380229</v>
+      </c>
+      <c r="F308">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="309" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>43.498725212713566</v>
+      </c>
+      <c r="D309">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E309">
+        <v>44.065391879380229</v>
+      </c>
+      <c r="F309">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="310" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>43.782058546046898</v>
+      </c>
+      <c r="D310">
+        <v>0.47443173196839439</v>
+      </c>
+      <c r="E310">
+        <v>44.34872521271356</v>
+      </c>
+      <c r="F310">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="311" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>43.782058546046898</v>
+      </c>
+      <c r="D311">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E311">
+        <v>44.34872521271356</v>
+      </c>
+      <c r="F311">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="312" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>44.065391879380229</v>
+      </c>
+      <c r="D312">
+        <v>0.49236493908122014</v>
+      </c>
+      <c r="E312">
+        <v>44.632058546046892</v>
+      </c>
+      <c r="F312">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="313" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>44.065391879380229</v>
+      </c>
+      <c r="D313">
+        <v>0.1926173875382915</v>
+      </c>
+      <c r="E313">
+        <v>44.915391879380223</v>
+      </c>
+      <c r="F313">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="314" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>44.34872521271356</v>
+      </c>
+      <c r="D314">
+        <v>0.37499969802350108</v>
+      </c>
+      <c r="E314">
+        <v>44.915391879380223</v>
+      </c>
+      <c r="F314">
+        <v>0.84999999999999432</v>
+      </c>
+    </row>
+    <row r="315" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>44.34872521271356</v>
+      </c>
+      <c r="D315">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E315">
+        <v>45.198725212713555</v>
+      </c>
+      <c r="F315">
+        <v>0.84999999999999432</v>
+      </c>
+    </row>
+    <row r="316" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>44.34872521271356</v>
+      </c>
+      <c r="D316">
+        <v>0.25614565183603588</v>
+      </c>
+      <c r="E316">
+        <v>45.198725212713555</v>
+      </c>
+      <c r="F316">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="317" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>44.915391879380223</v>
+      </c>
+      <c r="D317">
+        <v>0.54123871473477436</v>
+      </c>
+      <c r="E317">
+        <v>45.482058546046886</v>
+      </c>
+      <c r="F317">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>44.915391879380223</v>
+      </c>
+      <c r="D318">
+        <v>0.42740366565428189</v>
+      </c>
+      <c r="E318">
+        <v>45.482058546046886</v>
+      </c>
+      <c r="F318">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="319" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>45.198725212713555</v>
+      </c>
+      <c r="D319">
+        <v>0.58967979157846884</v>
+      </c>
+      <c r="E319">
+        <v>45.765391879380218</v>
+      </c>
+      <c r="F319">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="320" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>45.198725212713555</v>
+      </c>
+      <c r="D320">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E320">
+        <v>45.765391879380218</v>
+      </c>
+      <c r="F320">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>45.198725212713555</v>
+      </c>
+      <c r="D321">
+        <v>0.15732316663341095</v>
+      </c>
+      <c r="E321">
+        <v>46.048725212713549</v>
+      </c>
+      <c r="F321">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>45.482058546046886</v>
+      </c>
+      <c r="D322">
+        <v>0.27611810722449093</v>
+      </c>
+      <c r="E322">
+        <v>46.048725212713549</v>
+      </c>
+      <c r="F322">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>45.765391879380218</v>
+      </c>
+      <c r="D323">
+        <v>0.4436068180959083</v>
+      </c>
+      <c r="E323">
+        <v>46.332058546046881</v>
+      </c>
+      <c r="F323">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>45.765391879380218</v>
+      </c>
+      <c r="D324">
+        <v>0.33313002564500493</v>
+      </c>
+      <c r="E324">
+        <v>46.332058546046881</v>
+      </c>
+      <c r="F324">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="325" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>45.765391879380218</v>
+      </c>
+      <c r="D325">
+        <v>0.17033107089665123</v>
+      </c>
+      <c r="E325">
+        <v>46.615391879380212</v>
+      </c>
+      <c r="F325">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="326" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>46.048725212713549</v>
+      </c>
+      <c r="D326">
+        <v>0.18020136931742314</v>
+      </c>
+      <c r="E326">
+        <v>46.615391879380212</v>
+      </c>
+      <c r="F326">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="327" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>46.332058546046881</v>
+      </c>
+      <c r="D327">
+        <v>0.32037727441158381</v>
+      </c>
+      <c r="E327">
+        <v>46.898725212713543</v>
+      </c>
+      <c r="F327">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="328" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>46.332058546046881</v>
+      </c>
+      <c r="D328">
+        <v>0.18466031494650537</v>
+      </c>
+      <c r="E328">
+        <v>46.898725212713543</v>
+      </c>
+      <c r="F328">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="329" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>46.615391879380212</v>
+      </c>
+      <c r="D329">
+        <v>0.32230042506719769</v>
+      </c>
+      <c r="E329">
+        <v>47.182058546046875</v>
+      </c>
+      <c r="F329">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="330" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>46.615391879380212</v>
+      </c>
+      <c r="D330">
+        <v>0.20540659399468808</v>
+      </c>
+      <c r="E330">
+        <v>47.182058546046875</v>
+      </c>
+      <c r="F330">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="331" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>46.615391879380212</v>
+      </c>
+      <c r="D331">
+        <v>7.7601685694943967E-2</v>
+      </c>
+      <c r="E331">
+        <v>47.465391879380206</v>
+      </c>
+      <c r="F331">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="332" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>46.673723105187712</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>47.465391879380206</v>
+      </c>
+      <c r="F332">
+        <v>0.50690629545936616</v>
+      </c>
+    </row>
+    <row r="333" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>46.898725212713543</v>
+      </c>
+      <c r="D333">
+        <v>0.10038749805269731</v>
+      </c>
+      <c r="E333">
+        <v>47.748725212713538</v>
+      </c>
+      <c r="F333">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="334" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>46.95848558392084</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>47.748725212713538</v>
+      </c>
+      <c r="F334">
+        <v>0.48295220784002879</v>
+      </c>
+    </row>
+    <row r="335" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>47.182058546046875</v>
+      </c>
+      <c r="D335">
+        <v>7.0837617793934271E-2</v>
+      </c>
+      <c r="E335">
+        <v>48.032058546046869</v>
+      </c>
+      <c r="F335">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="336" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>47.265773004873509</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>48.032058546046869</v>
+      </c>
+      <c r="F336">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>47.465391879380206</v>
+      </c>
+      <c r="D337">
+        <v>4.9752640061569764E-2</v>
+      </c>
+      <c r="E337">
+        <v>48.315391879380201</v>
+      </c>
+      <c r="F337">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>47.465391879380206</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>48.315391879380201</v>
+      </c>
+      <c r="F338">
+        <v>0.43646619025681588</v>
+      </c>
+    </row>
+    <row r="339" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <v>47.748725212713538</v>
+      </c>
+      <c r="D339">
+        <v>0.17043296463611313</v>
+      </c>
+      <c r="E339">
+        <v>48.598725212713532</v>
+      </c>
+      <c r="F339">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>47.878925689123385</v>
+      </c>
+      <c r="D340">
+        <v>0.17444484758592438</v>
+      </c>
+      <c r="E340">
+        <v>48.598725212713532</v>
+      </c>
+      <c r="F340">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="341" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>48.032058546046869</v>
+      </c>
+      <c r="D341">
+        <v>0.16780453884478419</v>
+      </c>
+      <c r="E341">
+        <v>48.882058546046864</v>
+      </c>
+      <c r="F341">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="342" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>48.032058546046869</v>
+      </c>
+      <c r="D342">
+        <v>3.1020220662973941E-2</v>
+      </c>
+      <c r="E342">
+        <v>48.882058546046864</v>
+      </c>
+      <c r="F342">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="343" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>48.315391879380201</v>
+      </c>
+      <c r="D343">
+        <v>0.15199796592692394</v>
+      </c>
+      <c r="E343">
+        <v>49.165391879380195</v>
+      </c>
+      <c r="F343">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>48.598725212713532</v>
+      </c>
+      <c r="D344">
+        <v>0.32681346039947812</v>
+      </c>
+      <c r="E344">
+        <v>49.165391879380195</v>
+      </c>
+      <c r="F344">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>48.598725212713532</v>
+      </c>
+      <c r="D345">
+        <v>0.20423346444256651</v>
+      </c>
+      <c r="E345">
+        <v>49.448725212713526</v>
+      </c>
+      <c r="F345">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <v>48.882058546046864</v>
+      </c>
+      <c r="D346">
+        <v>0.37445211813535906</v>
+      </c>
+      <c r="E346">
+        <v>49.448725212713526</v>
+      </c>
+      <c r="F346">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="347" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>49.165391879380195</v>
+      </c>
+      <c r="D347">
+        <v>0.54992384030235542</v>
+      </c>
+      <c r="E347">
+        <v>49.732058546046858</v>
+      </c>
+      <c r="F347">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>49.165391879380195</v>
+      </c>
+      <c r="D348">
+        <v>0.44134288737021166</v>
+      </c>
+      <c r="E348">
+        <v>49.732058546046858</v>
+      </c>
+      <c r="F348">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>49.448725212713526</v>
+      </c>
+      <c r="D349">
+        <v>0.48007844217994489</v>
+      </c>
+      <c r="E349">
+        <v>50.015391879380189</v>
+      </c>
+      <c r="F349">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>49.448725212713526</v>
+      </c>
+      <c r="D350">
+        <v>0.17147715732665603</v>
+      </c>
+      <c r="E350">
+        <v>50.015391879380189</v>
+      </c>
+      <c r="F350">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="351" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>49.448725212713526</v>
+      </c>
+      <c r="D351">
+        <v>6.408593579224231E-2</v>
+      </c>
+      <c r="E351">
+        <v>50.298725212713521</v>
+      </c>
+      <c r="F351">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>49.732058546046858</v>
+      </c>
+      <c r="D352">
+        <v>0.22718732269711239</v>
+      </c>
+      <c r="E352">
+        <v>50.298725212713521</v>
+      </c>
+      <c r="F352">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="353" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>49.732058546046858</v>
+      </c>
+      <c r="D353">
+        <v>8.2698799382242782E-2</v>
+      </c>
+      <c r="E353">
+        <v>50.582058546046852</v>
+      </c>
+      <c r="F353">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="354" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>49.77120599284963</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>50.582058546046852</v>
+      </c>
+      <c r="F354">
+        <v>0.53329655966646783</v>
+      </c>
+    </row>
+    <row r="355" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>50.015391879380189</v>
+      </c>
+      <c r="D355">
+        <v>9.1618632341202044E-2</v>
+      </c>
+      <c r="E355">
+        <v>50.865391879380184</v>
+      </c>
+      <c r="F355">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="356" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>50.048761986380384</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>50.865391879380184</v>
+      </c>
+      <c r="F356">
+        <v>0.50718871930858711</v>
+      </c>
+    </row>
+    <row r="357" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>50.298725212713521</v>
+      </c>
+      <c r="D357">
+        <v>8.7573640905972638E-2</v>
+      </c>
+      <c r="E357">
+        <v>51.148725212713515</v>
+      </c>
+      <c r="F357">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="358" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>50.358203160071596</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>51.148725212713515</v>
+      </c>
+      <c r="F358">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="359" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>50.582058546046852</v>
+      </c>
+      <c r="D359">
+        <v>8.7098848449691957E-2</v>
+      </c>
+      <c r="E359">
+        <v>51.432058546046846</v>
+      </c>
+      <c r="F359">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="360" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>50.865391879380184</v>
+      </c>
+      <c r="D360">
+        <v>0.23038497082966103</v>
+      </c>
+      <c r="E360">
+        <v>51.432058546046846</v>
+      </c>
+      <c r="F360">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="361" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>51.148725212713515</v>
+      </c>
+      <c r="D361">
+        <v>0.37501203174608122</v>
+      </c>
+      <c r="E361">
+        <v>51.715391879380178</v>
+      </c>
+      <c r="F361">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="362" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>51.148725212713515</v>
+      </c>
+      <c r="D362">
+        <v>0.26636905800935295</v>
+      </c>
+      <c r="E362">
+        <v>51.715391879380178</v>
+      </c>
+      <c r="F362">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="363" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>51.148725212713515</v>
+      </c>
+      <c r="D363">
+        <v>0.14815135406281854</v>
+      </c>
+      <c r="E363">
+        <v>51.998725212713509</v>
+      </c>
+      <c r="F363">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="364" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>51.213969064641546</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>51.998725212713509</v>
+      </c>
+      <c r="F364">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="365" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>51.432058546046846</v>
+      </c>
+      <c r="D365">
+        <v>5.6784614968719893E-2</v>
+      </c>
+      <c r="E365">
+        <v>52.282058546046841</v>
+      </c>
+      <c r="F365">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="366" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <v>51.532306650205236</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>52.282058546046841</v>
+      </c>
+      <c r="F366">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="367" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <v>51.715391879380178</v>
+      </c>
+      <c r="D367">
+        <v>5.6236466710281263E-2</v>
+      </c>
+      <c r="E367">
+        <v>52.565391879380172</v>
+      </c>
+      <c r="F367">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="368" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <v>51.715391879380178</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>52.565391879380172</v>
+      </c>
+      <c r="F368">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="369" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <v>51.998725212713509</v>
+      </c>
+      <c r="D369">
+        <v>0.18055571152800809</v>
+      </c>
+      <c r="E369">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="F369">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="370" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C370">
+        <v>52.282058546046841</v>
+      </c>
+      <c r="D370">
+        <v>0.33449761938421574</v>
+      </c>
+      <c r="E370">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="F370">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="371" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <v>52.282058546046841</v>
+      </c>
+      <c r="D371">
+        <v>0.1930104836129658</v>
+      </c>
+      <c r="E371">
+        <v>53.132058546046835</v>
+      </c>
+      <c r="F371">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="372" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <v>52.565391879380172</v>
+      </c>
+      <c r="D372">
+        <v>0.33535422394812997</v>
+      </c>
+      <c r="E372">
+        <v>53.132058546046835</v>
+      </c>
+      <c r="F372">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="373" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="D373">
+        <v>0.46007149832053074</v>
+      </c>
+      <c r="E373">
+        <v>53.415391879380167</v>
+      </c>
+      <c r="F373">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="374" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="D374">
+        <v>0.32712436695499747</v>
+      </c>
+      <c r="E374">
+        <v>53.415391879380167</v>
+      </c>
+      <c r="F374">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="375" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="D375">
+        <v>0.19393665091879342</v>
+      </c>
+      <c r="E375">
+        <v>53.698725212713498</v>
+      </c>
+      <c r="F375">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="376" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <v>52.848725212713504</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>53.698725212713498</v>
+      </c>
+      <c r="F376">
+        <v>0.42275032330258711</v>
+      </c>
+    </row>
+    <row r="377" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <v>53.132058546046835</v>
+      </c>
+      <c r="D377">
+        <v>0.24685425531774996</v>
+      </c>
+      <c r="E377">
+        <v>53.982058546046829</v>
+      </c>
+      <c r="F377">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="378" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <v>53.275974889410911</v>
+      </c>
+      <c r="D378">
+        <v>0.2365648524998889</v>
+      </c>
+      <c r="E378">
+        <v>53.982058546046829</v>
+      </c>
+      <c r="F378">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="379" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <v>53.415391879380167</v>
+      </c>
+      <c r="D379">
+        <v>0.25637740567889011</v>
+      </c>
+      <c r="E379">
+        <v>54.265391879380161</v>
+      </c>
+      <c r="F379">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="380" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <v>53.415391879380167</v>
+      </c>
+      <c r="D380">
+        <v>0.1061864595752553</v>
+      </c>
+      <c r="E380">
+        <v>54.265391879380161</v>
+      </c>
+      <c r="F380">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="381" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C381">
+        <v>53.698725212713498</v>
+      </c>
+      <c r="D381">
+        <v>0.26920050645301075</v>
+      </c>
+      <c r="E381">
+        <v>54.548725212713492</v>
+      </c>
+      <c r="F381">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="382" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C382">
+        <v>53.698725212713498</v>
+      </c>
+      <c r="D382">
+        <v>0.11043367524561631</v>
+      </c>
+      <c r="E382">
+        <v>54.548725212713492</v>
+      </c>
+      <c r="F382">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="383" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C383">
+        <v>53.982058546046829</v>
+      </c>
+      <c r="D383">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E383">
+        <v>54.832058546046824</v>
+      </c>
+      <c r="F383">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="384" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C384">
+        <v>54.265391879380161</v>
+      </c>
+      <c r="D384">
+        <v>0.54265229421066152</v>
+      </c>
+      <c r="E384">
+        <v>54.832058546046824</v>
+      </c>
+      <c r="F384">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="385" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C385">
+        <v>54.265391879380161</v>
+      </c>
+      <c r="D385">
+        <v>0.43638983394168207</v>
+      </c>
+      <c r="E385">
+        <v>55.115391879380155</v>
+      </c>
+      <c r="F385">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="386" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C386">
+        <v>54.548725212713492</v>
+      </c>
+      <c r="D386">
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="E386">
+        <v>55.115391879380155</v>
+      </c>
+      <c r="F386">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="387" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C387">
+        <v>54.548725212713492</v>
+      </c>
+      <c r="D387">
+        <v>0.20041612704969936</v>
+      </c>
+      <c r="E387">
+        <v>55.398725212713487</v>
+      </c>
+      <c r="F387">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="388" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C388">
+        <v>54.832058546046824</v>
+      </c>
+      <c r="D388">
+        <v>0.33051084548255716</v>
+      </c>
+      <c r="E388">
+        <v>55.398725212713487</v>
+      </c>
+      <c r="F388">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="389" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <v>54.832058546046824</v>
+      </c>
+      <c r="D389">
+        <v>0.16447739091382374</v>
+      </c>
+      <c r="E389">
+        <v>55.682058546046818</v>
+      </c>
+      <c r="F389">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="390" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C390">
+        <v>55.115391879380155</v>
+      </c>
+      <c r="D390">
+        <v>0.30084782328177084</v>
+      </c>
+      <c r="E390">
+        <v>55.682058546046818</v>
+      </c>
+      <c r="F390">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="391" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C391">
+        <v>55.398725212713487</v>
+      </c>
+      <c r="D391">
+        <v>0.56666666666666288</v>
+      </c>
+      <c r="E391">
+        <v>55.965391879380149</v>
+      </c>
+      <c r="F391">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="392" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C392">
+        <v>55.398725212713487</v>
+      </c>
+      <c r="D392">
+        <v>0.42986116587615442</v>
+      </c>
+      <c r="E392">
+        <v>55.965391879380149</v>
+      </c>
+      <c r="F392">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="393" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C393">
+        <v>55.682058546046818</v>
+      </c>
+      <c r="D393">
+        <v>0.44552084621922461</v>
+      </c>
+      <c r="E393">
+        <v>56.248725212713481</v>
+      </c>
+      <c r="F393">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="394" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C394">
+        <v>55.682058546046818</v>
+      </c>
+      <c r="D394">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E394">
+        <v>56.248725212713481</v>
+      </c>
+      <c r="F394">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="395" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C395">
+        <v>55.682058546046818</v>
+      </c>
+      <c r="D395">
+        <v>0.16552405248137347</v>
+      </c>
+      <c r="E395">
+        <v>56.532058546046812</v>
+      </c>
+      <c r="F395">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="396" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C396">
+        <v>55.965391879380149</v>
+      </c>
+      <c r="D396">
+        <v>0.13681009784418308</v>
+      </c>
+      <c r="E396">
+        <v>56.532058546046812</v>
+      </c>
+      <c r="F396">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="397" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <v>55.965391879380149</v>
+      </c>
+      <c r="D397">
+        <v>1.775129240172646E-2</v>
+      </c>
+      <c r="E397">
+        <v>56.815391879380144</v>
+      </c>
+      <c r="F397">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="398" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C398">
+        <v>56.085106072376533</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>56.815391879380144</v>
+      </c>
+      <c r="F398">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="399" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C399">
+        <v>56.248725212713481</v>
+      </c>
+      <c r="D399">
+        <v>2.6221946739816815E-2</v>
+      </c>
+      <c r="E399">
+        <v>57.098725212713475</v>
+      </c>
+      <c r="F399">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="400" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C400">
+        <v>56.532058546046812</v>
+      </c>
+      <c r="D400">
+        <v>0.16554151473134482</v>
+      </c>
+      <c r="E400">
+        <v>57.098725212713475</v>
+      </c>
+      <c r="F400">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="401" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C401">
+        <v>56.815391879380144</v>
+      </c>
+      <c r="D401">
+        <v>0.32535972805702329</v>
+      </c>
+      <c r="E401">
+        <v>57.382058546046807</v>
+      </c>
+      <c r="F401">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="402" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C402">
+        <v>56.815391879380144</v>
+      </c>
+      <c r="D402">
+        <v>0.21400596689743878</v>
+      </c>
+      <c r="E402">
+        <v>57.382058546046807</v>
+      </c>
+      <c r="F402">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="403" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C403">
+        <v>56.815391879380144</v>
+      </c>
+      <c r="D403">
+        <v>0.10992485768895222</v>
+      </c>
+      <c r="E403">
+        <v>57.665391879380138</v>
+      </c>
+      <c r="F403">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="404" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C404">
+        <v>57.098725212713475</v>
+      </c>
+      <c r="D404">
+        <v>0.25979677750701313</v>
+      </c>
+      <c r="E404">
+        <v>57.665391879380138</v>
+      </c>
+      <c r="F404">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="405" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C405">
+        <v>57.382058546046807</v>
+      </c>
+      <c r="D405">
+        <v>0.40164273448842636</v>
+      </c>
+      <c r="E405">
+        <v>57.94872521271347</v>
+      </c>
+      <c r="F405">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="406" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C406">
+        <v>57.382058546046807</v>
+      </c>
+      <c r="D406">
+        <v>0.24279902109928031</v>
+      </c>
+      <c r="E406">
+        <v>57.94872521271347</v>
+      </c>
+      <c r="F406">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="407" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C407">
+        <v>57.382058546046807</v>
+      </c>
+      <c r="D407">
+        <v>0.10800513855448912</v>
+      </c>
+      <c r="E407">
+        <v>58.232058546046801</v>
+      </c>
+      <c r="F407">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="408" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C408">
+        <v>57.386049390288484</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>58.232058546046801</v>
+      </c>
+      <c r="F408">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="409" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C409">
+        <v>57.665391879380138</v>
+      </c>
+      <c r="D409">
+        <v>0.17003417846932933</v>
+      </c>
+      <c r="E409">
+        <v>58.515391879380132</v>
+      </c>
+      <c r="F409">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="410" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C410">
+        <v>57.665391879380138</v>
+      </c>
+      <c r="D410">
+        <v>4.5245590846782591E-2</v>
+      </c>
+      <c r="E410">
+        <v>58.515391879380132</v>
+      </c>
+      <c r="F410">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="411" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C411">
+        <v>57.94872521271347</v>
+      </c>
+      <c r="D411">
+        <v>0.21135293696685409</v>
+      </c>
+      <c r="E411">
+        <v>58.798725212713464</v>
+      </c>
+      <c r="F411">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="412" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C412">
+        <v>58.232058546046801</v>
+      </c>
+      <c r="D412">
+        <v>0.38472692053224478</v>
+      </c>
+      <c r="E412">
+        <v>58.798725212713464</v>
+      </c>
+      <c r="F412">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="413" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C413">
+        <v>58.515391879380132</v>
+      </c>
+      <c r="D413">
+        <v>0.53975530085255485</v>
+      </c>
+      <c r="E413">
+        <v>59.082058546046795</v>
+      </c>
+      <c r="F413">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="414" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C414">
+        <v>58.515391879380132</v>
+      </c>
+      <c r="D414">
+        <v>0.39628334957082956</v>
+      </c>
+      <c r="E414">
+        <v>59.082058546046795</v>
+      </c>
+      <c r="F414">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="415" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C415">
+        <v>58.798725212713464</v>
+      </c>
+      <c r="D415">
+        <v>0.52908413066427329</v>
+      </c>
+      <c r="E415">
+        <v>59.365391879380127</v>
+      </c>
+      <c r="F415">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="416" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C416">
+        <v>58.798725212713464</v>
+      </c>
+      <c r="D416">
+        <v>0.27975429461871926</v>
+      </c>
+      <c r="E416">
+        <v>59.365391879380127</v>
+      </c>
+      <c r="F416">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="417" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C417">
+        <v>59.082058546046795</v>
+      </c>
+      <c r="D417">
+        <v>0.45223938791468044</v>
+      </c>
+      <c r="E417">
+        <v>59.648725212713458</v>
+      </c>
+      <c r="F417">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="418" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C418">
+        <v>59.082058546046795</v>
+      </c>
+      <c r="D418">
+        <v>0.28333333333333144</v>
+      </c>
+      <c r="E418">
+        <v>59.648725212713458</v>
+      </c>
+      <c r="F418">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="419" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C419">
+        <v>59.082058546046795</v>
+      </c>
+      <c r="D419">
+        <v>0.17740205657759844</v>
+      </c>
+      <c r="E419">
+        <v>59.93205854604679</v>
+      </c>
+      <c r="F419">
+        <v>0.56666666666666288</v>
+      </c>
+    </row>
+    <row r="420" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C420">
+        <v>59.208184879346852</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>59.93205854604679</v>
+      </c>
+      <c r="F420">
+        <v>0.4872059916246485</v>
+      </c>
+    </row>
+    <row r="421" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C421">
+        <v>59.365391879380127</v>
+      </c>
+      <c r="D421">
+        <v>3.3593702188184693E-2</v>
+      </c>
+      <c r="E421">
+        <v>51.371742400415648</v>
+      </c>
+      <c r="F421">
+        <v>0.31790680302277252</v>
+      </c>
+    </row>
+    <row r="422" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C422">
+        <v>59.444852554422141</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>51.421802710073372</v>
+      </c>
+      <c r="F422">
+        <v>0.36010035892356029</v>
+      </c>
+    </row>
+    <row r="423" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C423">
+        <v>59.648725212713458</v>
+      </c>
+      <c r="D423">
+        <v>6.4292737266512745E-2</v>
+      </c>
+      <c r="E423">
+        <v>51.558662304225976</v>
+      </c>
+      <c r="F423">
+        <v>0.2931363348664604</v>
+      </c>
+    </row>
+    <row r="424" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C424">
+        <v>59.72128748542049</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>51.666655592133438</v>
+      </c>
+      <c r="F424">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="425" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C425">
+        <v>59.93205854604679</v>
+      </c>
+      <c r="D425">
+        <v>4.8134132094283189E-2</v>
+      </c>
+      <c r="E425">
+        <v>51.705136043406704</v>
+      </c>
+      <c r="F425">
+        <v>0.29766428440249371</v>
+      </c>
+    </row>
+    <row r="426" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C426">
+        <v>51.893544581300084</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>51.841995637559307</v>
+      </c>
+      <c r="F426">
+        <v>0.32369965320356897</v>
+      </c>
+    </row>
+    <row r="427" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C427">
+        <v>52.056970027592371</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>51.949988925466769</v>
+      </c>
+      <c r="F427">
+        <v>0.29551853036019082</v>
+      </c>
+    </row>
+    <row r="428" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C428">
+        <v>52.22156774014816</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>51.988469376740035</v>
+      </c>
+      <c r="F428">
+        <v>0.32644014216895556</v>
+      </c>
+    </row>
+    <row r="429" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C429">
+        <v>52.340303360925702</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>52.125328970892639</v>
+      </c>
+      <c r="F429">
+        <v>0.42019292748593529</v>
+      </c>
+    </row>
+    <row r="430" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C430">
+        <v>52.347400314463059</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>52.233322258800101</v>
+      </c>
+      <c r="F430">
+        <v>0.29123591922503778</v>
+      </c>
+    </row>
+    <row r="431" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C431">
+        <v>52.512283420283246</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>52.340303360925702</v>
+      </c>
+      <c r="F431">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="432" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <v>52.671892176620425</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>52.40866230422597</v>
+      </c>
+      <c r="F432">
+        <v>0.34396093260506433</v>
+      </c>
+    </row>
+    <row r="433" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C433">
+        <v>52.779055915143196</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>52.628606483708239</v>
+      </c>
+      <c r="F433">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="434" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C434">
+        <v>52.91824809496557</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>52.76284185318449</v>
+      </c>
+      <c r="F434">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="435" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C435">
+        <v>53.053188894025539</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>52.795616753616578</v>
+      </c>
+      <c r="F435">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="436" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C436">
+        <v>53.062389248476528</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>52.911939817041571</v>
+      </c>
+      <c r="F436">
+        <v>0.30284555715746819</v>
+      </c>
+    </row>
+    <row r="437" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <v>53.208529420097292</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>53.062389248476528</v>
+      </c>
+      <c r="F437">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="438" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C438">
+        <v>53.360826704202431</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>53.102523820903322</v>
+      </c>
+      <c r="F438">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="439" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C439">
+        <v>53.483395040989897</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>53.324740984332848</v>
+      </c>
+      <c r="F439">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="440" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <v>53.606520144277738</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>53.345722581809859</v>
+      </c>
+      <c r="F440">
+        <v>0.29253368778432076</v>
+      </c>
+    </row>
+    <row r="441" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C441">
+        <v>53.708973501926451</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>53.479019252365752</v>
+      </c>
+      <c r="F441">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="442" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C442">
+        <v>53.829576759326052</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>53.617232053915281</v>
+      </c>
+      <c r="F442">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="443" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <v>53.933760060526417</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>53.644160037535762</v>
+      </c>
+      <c r="F443">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="444" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C444">
+        <v>54.070766829633236</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>53.766728374323229</v>
+      </c>
+      <c r="F444">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="445" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C445">
+        <v>54.186563223744315</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>53.900565387248612</v>
+      </c>
+      <c r="F445">
+        <v>0.2940452429708742</v>
+      </c>
+    </row>
+    <row r="446" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C446">
+        <v>54.343459099661992</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>53.992306835259782</v>
+      </c>
+      <c r="F446">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="447" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C447">
+        <v>54.462275485002742</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>54.112910092659384</v>
+      </c>
+      <c r="F447">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="448" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C448">
+        <v>54.469896557077647</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>54.217093393859749</v>
+      </c>
+      <c r="F448">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="449" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C449">
+        <v>54.619303012737959</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>54.469896557077647</v>
+      </c>
+      <c r="F449">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="450" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C450">
+        <v>54.753229890410978</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>54.503293807097336</v>
+      </c>
+      <c r="F450">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="451" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C451">
+        <v>54.767340506672717</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>54.745608818336073</v>
+      </c>
+      <c r="F451">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="452" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C452">
+        <v>54.902956997119226</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>54.753229890410978</v>
+      </c>
+      <c r="F452">
+        <v>0.28804281704805135</v>
+      </c>
+    </row>
+    <row r="453" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C453">
+        <v>55.061686160959695</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>54.786627140430667</v>
+      </c>
+      <c r="F453">
+        <v>0.31673058335302073</v>
+      </c>
+    </row>
+    <row r="454" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C454">
+        <v>55.18032338838772</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>55.028942151669405</v>
+      </c>
+      <c r="F454">
+        <v>0.40963913893144621</v>
+      </c>
+    </row>
+    <row r="455" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C455">
+        <v>55.316174747908718</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>55.036563223744309</v>
+      </c>
+      <c r="F455">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="456" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C456">
+        <v>55.455703992002697</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>55.186290330452557</v>
+      </c>
+      <c r="F456">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="457" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C457">
+        <v>55.603543851336298</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>55.312275485002736</v>
+      </c>
+      <c r="F457">
+        <v>0.39906545195808718</v>
+      </c>
+    </row>
+    <row r="458" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C458">
+        <v>55.621281065346452</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>55.345019494293027</v>
+      </c>
+      <c r="F458">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="459" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <v>55.745745348356735</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>55.59950808124205</v>
+      </c>
+      <c r="F459">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="460" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C460">
+        <v>55.848071897205706</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>55.603543851336298</v>
+      </c>
+      <c r="F460">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="461" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C461">
+        <v>55.886877184669629</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>55.739037325336028</v>
+      </c>
+      <c r="F461">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="462" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C462">
+        <v>55.96560893456423</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>55.886877184669629</v>
+      </c>
+      <c r="F462">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="463" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C463">
+        <v>56.107349344617731</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>55.904614398679783</v>
+      </c>
+      <c r="F463">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="464" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <v>56.271694776285386</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>56.029078681690066</v>
+      </c>
+      <c r="F464">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="465" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C465">
+        <v>56.430197271973377</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>56.17021051800296</v>
+      </c>
+      <c r="F465">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="466" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C466">
+        <v>56.520741692926308</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>56.276495122750511</v>
+      </c>
+      <c r="F466">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="467" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C467">
+        <v>56.548962195257623</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>56.399525969341305</v>
+      </c>
+      <c r="F467">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="468" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <v>56.559828456083842</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>56.520741692926308</v>
+      </c>
+      <c r="F468">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="469" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C469">
+        <v>56.649035069625086</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>56.559828456083842</v>
+      </c>
+      <c r="F469">
+        <v>0.28813367979845594</v>
+      </c>
+    </row>
+    <row r="470" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C470">
+        <v>56.797206112067919</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>56.713530605306708</v>
+      </c>
+      <c r="F470">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="471" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C471">
+        <v>56.91784915716525</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>56.804075026259639</v>
+      </c>
+      <c r="F471">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="472" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <v>57.08129809254789</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>56.843161789417174</v>
+      </c>
+      <c r="F472">
+        <v>0.29419959415955077</v>
+      </c>
+    </row>
+    <row r="473" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <v>57.08740835959297</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>56.99686393864004</v>
+      </c>
+      <c r="F473">
+        <v>0.43703548255619751</v>
+      </c>
+    </row>
+    <row r="474" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C474">
+        <v>57.184430976965317</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>57.08740835959297</v>
+      </c>
+      <c r="F474">
+        <v>0.29565715625635391</v>
+      </c>
+    </row>
+    <row r="475" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C475">
+        <v>57.280197271973371</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>57.126495122750505</v>
+      </c>
+      <c r="F475">
+        <v>0.32928901068258654</v>
+      </c>
+    </row>
+    <row r="476" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C476">
+        <v>57.332973527721165</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>57.280197271973371</v>
+      </c>
+      <c r="F476">
+        <v>0.36234811480812112</v>
+      </c>
+    </row>
+    <row r="477" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C477">
+        <v>57.464060842661418</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>57.370741692926302</v>
+      </c>
+      <c r="F477">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="478" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C478">
+        <v>57.564102268833437</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>57.467764310298648</v>
+      </c>
+      <c r="F478">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="479" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C479">
+        <v>57.719005213748993</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>57.563530605306703</v>
+      </c>
+      <c r="F479">
+        <v>0.36361169211994593</v>
+      </c>
+    </row>
+    <row r="480" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C480">
+        <v>57.87789800467057</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>57.654075026259633</v>
+      </c>
+      <c r="F480">
+        <v>0.37387775428626213</v>
+      </c>
+    </row>
+    <row r="481" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C481">
+        <v>58.011224219655716</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>57.751097643631979</v>
+      </c>
+      <c r="F481">
+        <v>0.29192951123264521</v>
+      </c>
+    </row>
+    <row r="482" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <v>58.159324215169278</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>57.871873978376897</v>
+      </c>
+      <c r="F482">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="483" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C483">
+        <v>58.290279979043575</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>58.021413518992567</v>
+      </c>
+      <c r="F483">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="484" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C484">
+        <v>58.304746852325898</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>58.170790759420967</v>
+      </c>
+      <c r="F484">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="485" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <v>58.324692341942637</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>58.290279979043575</v>
+      </c>
+      <c r="F485">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="486" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C486">
+        <v>58.486689916242689</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>58.304746852325898</v>
+      </c>
+      <c r="F486">
+        <v>0.2935226326701823</v>
+      </c>
+    </row>
+    <row r="487" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C487">
+        <v>58.573613312376906</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>58.573613312376906</v>
+      </c>
+      <c r="F487">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="488" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C488">
+        <v>58.59130781307347</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>58.583817391355055</v>
+      </c>
+      <c r="F488">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="489" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C489">
+        <v>58.725648678331567</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>58.58808018565923</v>
+      </c>
+      <c r="F489">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="490" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C490">
+        <v>58.87053229199006</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>58.856946645710238</v>
+      </c>
+      <c r="F490">
+        <v>0.5322543037676013</v>
+      </c>
+    </row>
+    <row r="491" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C491">
+        <v>58.871413518992561</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>58.867150724688386</v>
+      </c>
+      <c r="F491">
+        <v>0.3804608084456973</v>
+      </c>
+    </row>
+    <row r="492" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <v>59.00927332944282</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>58.871413518992561</v>
+      </c>
+      <c r="F492">
+        <v>0.29780020661565487</v>
+      </c>
+    </row>
+    <row r="493" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C493">
+        <v>59.1205474614029</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>59.140279979043569</v>
+      </c>
+      <c r="F493">
+        <v>0.54897216597009901</v>
+      </c>
+    </row>
+    <row r="494" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C494">
+        <v>59.257356845169618</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>59.150484058021718</v>
+      </c>
+      <c r="F494">
+        <v>0.42483537969015117</v>
+      </c>
+    </row>
+    <row r="495" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C495">
+        <v>59.414514832316996</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
+        <v>59.154746852325893</v>
+      </c>
+      <c r="F495">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="496" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C496">
+        <v>59.556914592662061</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>59.423613312376901</v>
+      </c>
+      <c r="F496">
+        <v>0.42435736099680099</v>
+      </c>
+    </row>
+    <row r="497" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <v>59.670410541419265</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+      <c r="E497">
+        <v>59.433817391355049</v>
+      </c>
+      <c r="F497">
+        <v>0.42454406191222915</v>
+      </c>
+    </row>
+    <row r="498" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <v>59.717150724688381</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>59.438080185659224</v>
+      </c>
+      <c r="F498">
+        <v>0.31753272425632417</v>
+      </c>
+    </row>
+    <row r="499" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C499">
+        <v>59.78356331691414</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>59.706946645710232</v>
+      </c>
+      <c r="F499">
+        <v>0.4495898005406147</v>
+      </c>
+    </row>
+    <row r="500" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <v>59.840247925995392</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>59.717150724688381</v>
+      </c>
+      <c r="F500">
+        <v>0.30263589237138433</v>
+      </c>
+    </row>
+    <row r="501" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C501">
+        <v>59.931716694822157</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>59.840247925995392</v>
+      </c>
+      <c r="F501">
+        <v>0.28333333333333144</v>
+      </c>
+    </row>
+    <row r="502" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C502">
+        <v>59.990279979043564</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+      <c r="E502">
+        <v>59.990279979043564</v>
+      </c>
+      <c r="F502">
+        <v>0.31986943762429831</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="R1:T1"/>
